--- a/biology/Zoologie/Capronnieria_galesus/Capronnieria_galesus.xlsx
+++ b/biology/Zoologie/Capronnieria_galesus/Capronnieria_galesus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capronnieria galesus est une espèce néotropicale de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Satyrinae. Elle est la seule représentante du genre monotypique Capronnieria.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Capronnieria galesus est originaire du Sud-Est du Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Capronnieria galesus est originaire du Sud-Est du Brésil.
 </t>
         </is>
       </c>
@@ -542,16 +556,18 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Capronnieria galesus a été décrite par l'entomologiste français Jean-Baptiste Godart en 1824, sous le nom initial de Satyrus galesus[2].
-Elle a pour synonymes[2] :
-Satyrus galesus Godart, [1824] — protonyme
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Capronnieria galesus a été décrite par l'entomologiste français Jean-Baptiste Godart en 1824, sous le nom initial de Satyrus galesus.
+Elle a pour synonymes :
+Satyrus galesus Godart,  — protonyme
 Neonympha abretia Capronnier, 1874
 Euptychia burgia Schaus, 1902
 Euptychia pavunae d'Almeida, 1922
 Capronnieria ibschi Anken, 1999
-Elle est aujourd'hui l'unique espèce du genre monotypique Capronnieria, qui a été décrit en 1964 par l'entomologiste allemand Walter Forster[3], avec pour espèce type Neonympha abretia Capronnier, 1874.
+Elle est aujourd'hui l'unique espèce du genre monotypique Capronnieria, qui a été décrit en 1964 par l'entomologiste allemand Walter Forster, avec pour espèce type Neonympha abretia Capronnier, 1874.
 </t>
         </is>
       </c>
